--- a/feature/電子サイン/tasks.xlsx
+++ b/feature/電子サイン/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\feature\電子サイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1064EDBE-5FB1-4AE9-8082-FF933AC7E581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DF10B9-7C2F-43DD-B266-3E9D823C5E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasks" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,49 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>吉澤 和也</author>
+  </authors>
+  <commentList>
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{549941F5-78F8-443E-A35C-347770242795}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>結論：S3 のサイン済み URL を“実質無期限”にはできません。
+SigV4 のプリサインド URL は有効期限の上限があり、一般に 最大 7 日 までです。そのため、ブックマークできる恒久リンクとしては不向きです。
+代案（実務でよく使われるパターン）：
+固定URL → 毎回リダイレクトで最新のプリサインドURL
+例: https://your.api/files/{id} を恒久リンクにし、アクセス毎に 302 で短期（数分〜数時間）のプリサインドURLへリダイレクト。
+◎ 利点: 恒久リンクを配布可能、即時失効や権限制御も容易、監査ログも取りやすい
+△ 欠点: 毎回サーバ（or Lambda）が介在
+CloudFront + Signed URL / Cookies（OAC で S3 は私有のまま）
+CloudFront を S3 の前段に置き、長期（数ヶ月〜年単位） の署名付き URL / Cookie を発行。
+◎ 利点: 長寿命リンクに近い運用が可能、CDN で高速配信、S3 は非公開のまま
+△ 欠点: CloudFront 構成・鍵運用が必要（鍵ローテーションや失効設計も）
+認証つき恒久URL（プロキシ配信）
+API Gateway / アプリサーバが認証後に S3 から取得してストリーム返却（Range 対応も可）。
+◎ 利点: URL 自体は恒久、細かな権限・課金・レート制御
+△ 欠点: 配信トラフィックがサーバに載る（コスト/スケール対応が必要）
+そもそも公開で良い物は CloudFront 公開 + キャッシュ制御
+※機微情報でない場合のみ。今回は「private を保ちたい」前提なら非推奨。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>電子サイン</t>
-    <rPh sb="0" eb="2">
-      <t>デンシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>TerminalAPI</t>
     <phoneticPr fontId="1"/>
@@ -71,45 +105,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>取引取得API（既設改修）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>やること</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイン条件をちゃんと定義できるか</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サーバサイド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部からの受け口追加</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>グチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おそらく ***_sam</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -135,6 +135,266 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API実装</t>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IF追加</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IF変更</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決済取得</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決済開始</t>
+    <rPh sb="0" eb="4">
+      <t>ケッサイカイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インフラ構築</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部接続</t>
+    <rPh sb="0" eb="4">
+      <t>ガイブセツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBスキーマ込み、API3種</t>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>踏み台整備</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おそらく ***_sam 本番デプロイなどは工数にいれていません</t>
+    <rPh sb="13" eb="15">
+      <t>ホンバン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI実装あり。サイン条件をちゃんと定義できるか</t>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子サイン（TerminalAPI）</t>
+    <rPh sb="0" eb="2">
+      <t>デンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子サイン（決済アプリ）</t>
+    <rPh sb="0" eb="2">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決済アプリ</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレジット決済</t>
+    <rPh sb="5" eb="7">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手書き入力実装</t>
+    <rPh sb="0" eb="2">
+      <t>テガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決済処理の変更</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定を参照し、手書きのため処理待機など</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テガ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DL URL取得・永続公開の仕組み</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>エイゾク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QR 発行の実装</t>
+    <rPh sb="3" eb="5">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各パターンレシート試験</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近実装範囲</t>
+    <rPh sb="0" eb="2">
+      <t>チョッキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシートアップロードの実装</t>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計必要。URLを知っているなら永続アクセス可能にする必要あり</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>エイゾク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバは使いまわせる</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -143,7 +403,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +425,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,8 +447,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -188,20 +462,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -475,104 +886,326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="3" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.796875" style="1"/>
+    <col min="8" max="8" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:8">
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="12">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="14"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="12">
+        <v>3</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="14"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F6" s="12">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="14"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="I7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="14"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="14"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="12">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="1" t="s">
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="12">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="12">
+        <v>3</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="6"/>
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="9">
+        <v>3</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="6"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="6"/>
+      <c r="C16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3</v>
+      </c>
+      <c r="G16" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="9">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G17" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="7"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/feature/電子サイン/tasks.xlsx
+++ b/feature/電子サイン/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\feature\電子サイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DF10B9-7C2F-43DD-B266-3E9D823C5E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9ADCBB-9A83-4C89-A464-51E33427D873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>TerminalAPI</t>
     <phoneticPr fontId="1"/>
@@ -395,6 +395,38 @@
     <t>サーバは使いまわせる</t>
     <rPh sb="4" eb="5">
       <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシート画像の作成（各パターン）</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定を参照し電子レシートの動きにするか決める。</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -403,7 +435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +462,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -598,10 +637,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -887,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -919,15 +958,15 @@
         <v>7</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -936,21 +975,21 @@
       <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>4</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="6"/>
       <c r="C4" s="9"/>
       <c r="D4" s="8" t="s">
@@ -959,10 +998,10 @@
       <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>3</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -970,20 +1009,20 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="6"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="14"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="6"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
@@ -991,44 +1030,44 @@
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>3</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="9"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>1</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="11"/>
       <c r="I7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="9"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>1</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1036,19 +1075,19 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>5</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1062,13 +1101,13 @@
       <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>5</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1079,13 +1118,13 @@
       <c r="B11" s="6"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>3</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1099,16 +1138,16 @@
       <c r="C12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>10</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1120,7 +1159,7 @@
       <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -1136,7 +1175,6 @@
     <row r="14" spans="1:9">
       <c r="B14" s="6"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="11"/>
       <c r="E14" s="9" t="s">
         <v>34</v>
       </c>
@@ -1149,57 +1187,84 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="6"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10">
+      <c r="C15" s="9"/>
+      <c r="E15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="14">
         <v>5</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="I15" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="6"/>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="6"/>
+      <c r="C17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="8">
         <v>3</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="9" t="s">
+    <row r="18" spans="2:9">
+      <c r="B18" s="6"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>3</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="10" t="s">
+    <row r="19" spans="2:9">
+      <c r="B19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="E19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="14">
+        <v>5</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="I19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="7"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10">
         <v>5</v>
       </c>
     </row>

--- a/feature/電子サイン/tasks.xlsx
+++ b/feature/電子サイン/tasks.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\feature\電子サイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9ADCBB-9A83-4C89-A464-51E33427D873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D2354F-ED62-4A19-969E-70964AD1920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tasks" sheetId="1" r:id="rId1"/>
+    <sheet name="工数見積" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
     <author>吉澤 和也</author>
   </authors>
   <commentList>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{549941F5-78F8-443E-A35C-347770242795}">
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{549941F5-78F8-443E-A35C-347770242795}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>TerminalAPI</t>
     <phoneticPr fontId="1"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">取引関連画像保存API  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実装</t>
     <rPh sb="0" eb="2">
       <t>ジッソウ</t>
@@ -101,10 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>d</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>やること</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -160,23 +152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>決済取得</t>
-    <rPh sb="0" eb="2">
-      <t>ケッサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>決済開始</t>
-    <rPh sb="0" eb="4">
-      <t>ケッサイカイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>インフラ構築</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -188,16 +163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DBスキーマ込み、API3種</t>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>シュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -215,29 +180,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>おそらく ***_sam 本番デプロイなどは工数にいれていません</t>
-    <rPh sb="13" eb="15">
-      <t>ホンバン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI実装あり。サイン条件をちゃんと定義できるか</t>
-    <rPh sb="2" eb="4">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>電子サイン（TerminalAPI）</t>
     <rPh sb="0" eb="2">
       <t>デンシ</t>
@@ -392,13 +334,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サーバは使いまわせる</t>
-    <rPh sb="4" eb="5">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レシート画像の作成（各パターン）</t>
     <rPh sb="4" eb="6">
       <t>ガゾウ</t>
@@ -412,21 +347,132 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設定を参照し電子レシートの動きにするか決める。</t>
+    <t xml:space="preserve">取引画像保存API </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取引情報取得</t>
     <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おそらく ***_sam を変更。WAF要確認。本番デプロイなどは工数にいれていません</t>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ヨウカクニン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホンバン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイン条件をAPI結果に連携する。各パターン試験</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBスキーマ込み、内部API3種実装</t>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバサイドは使いまわせる</t>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各レシートバリエーションの画像化。設定を参照し電子レシートの動きにするか決める。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ガゾウカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="20" eb="22">
       <t>サンショウ</t>
     </rPh>
-    <rPh sb="6" eb="8">
+    <rPh sb="23" eb="25">
       <t>デンシ</t>
     </rPh>
-    <rPh sb="13" eb="14">
+    <rPh sb="30" eb="31">
       <t>ウゴ</t>
     </rPh>
-    <rPh sb="19" eb="20">
+    <rPh sb="36" eb="37">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各レシートバリエーションの画像化。設定を参照し電子レシートの動きにするか決める。</t>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REV02 : 2025/9/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d（人日）</t>
+    <rPh sb="2" eb="4">
+      <t>ニンニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -435,7 +481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +518,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -625,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -641,6 +695,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -926,345 +981,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="B2:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.796875" style="1"/>
-    <col min="8" max="8" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.796875" style="1"/>
+    <col min="9" max="9" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="F1" s="1" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="13"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="13"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="G7" s="11">
         <v>3</v>
       </c>
-      <c r="F3" s="11">
-        <v>4</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="H7" s="11"/>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="13"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="H8" s="11"/>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9"/>
+      <c r="F9" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="11">
-        <v>3</v>
-      </c>
-      <c r="G4" s="11">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="11">
-        <v>3</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="I6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="13"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="E8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="11">
-        <v>5</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="5" t="s">
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="13"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="C12" s="6"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="11">
+        <v>3</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="11">
+        <v>10</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="C14" s="6"/>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="G14" s="8">
+        <v>3</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="C15" s="6"/>
+      <c r="D15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="9">
+        <v>3</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="C16" s="6"/>
+      <c r="D16" s="9"/>
+      <c r="F16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="14">
+        <v>8</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="6"/>
+      <c r="D17" s="10"/>
+      <c r="F17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="6"/>
+      <c r="D18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="8">
+        <v>3</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="6"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="11">
-        <v>5</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="G19" s="9">
+        <v>3</v>
+      </c>
+      <c r="H19" s="9">
         <v>1</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="11">
-        <v>3</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="6"/>
+      <c r="D20" s="9"/>
+      <c r="F20" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="G20" s="14">
         <v>8</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="11">
-        <v>10</v>
-      </c>
-      <c r="G12" s="11">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="6"/>
-      <c r="C13" s="8" t="s">
+      <c r="H20" s="9"/>
+      <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="7"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="9">
-        <v>3</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-      <c r="E15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="14">
-        <v>5</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="I15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="6"/>
-      <c r="C17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="8">
-        <v>3</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="9">
-        <v>3</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
-      <c r="E19" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="14">
-        <v>5</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="I19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10">
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
         <v>5</v>
       </c>
     </row>
